--- a/LOGS/2a465118-9c4e-4fea-abc5-b0fdbab2eae7/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/2a465118-9c4e-4fea-abc5-b0fdbab2eae7/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="90">
   <si>
     <t>rows</t>
   </si>
@@ -40,6 +40,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Bank balances</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>$'000</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Current Trade receivables</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>Current Total</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>None Finished goods at cost</t>
   </si>
   <si>
@@ -70,16 +79,13 @@
     <t>None Total</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>None Balance at</t>
   </si>
   <si>
-    <t>Total Balance at</t>
-  </si>
-  <si>
-    <t>Total Depreciation charge for the year</t>
-  </si>
-  <si>
-    <t>Total Total</t>
+    <t>None Depreciation charge for the year</t>
   </si>
   <si>
     <t>Carrying amounts At 1 April 2021</t>
@@ -103,6 +109,9 @@
     <t>Total $'000</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>None Trade payables due to related parties</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>None Non-trade payables and accrued ex penses</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>None Liability for long service leave</t>
   </si>
   <si>
@@ -121,6 +133,9 @@
     <t>Non Current Liability for long-service leave</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>None Balance at 1 April 2022</t>
   </si>
   <si>
@@ -148,6 +163,9 @@
     <t>$'000 TOTAL</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>None Sale of goods</t>
   </si>
   <si>
@@ -157,9 +175,15 @@
     <t>$</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>None Rental income</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>None Advertising and marketing</t>
   </si>
   <si>
@@ -175,6 +199,9 @@
     <t>None Warranty costs</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>None Depreciation</t>
   </si>
   <si>
@@ -187,6 +214,9 @@
     <t>None Other administrative expenses</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>None Interest income</t>
   </si>
   <si>
@@ -208,6 +238,9 @@
     <t>None Net financing costs</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Cash flows from operating activities Profit for the period nan</t>
   </si>
   <si>
@@ -260,6 +293,9 @@
   </si>
   <si>
     <t>Operating profit before changes in working capital and provisions Net cash from / (used in) operating activities nan</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -617,13 +653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,13 +672,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -650,13 +689,16 @@
       <c r="D2">
         <v>8374</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -664,13 +706,16 @@
       <c r="D3">
         <v>8374</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -678,19 +723,25 @@
       <c r="D4">
         <v>5423</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>5423</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +751,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,13 +770,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -733,13 +787,16 @@
       <c r="D2">
         <v>3390</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -747,13 +804,16 @@
       <c r="D3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -761,13 +821,16 @@
       <c r="D4">
         <v>755</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -775,13 +838,16 @@
       <c r="D5">
         <v>644</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -789,13 +855,16 @@
       <c r="D6">
         <v>614</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -803,13 +872,16 @@
       <c r="D7">
         <v>5408</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -817,13 +889,16 @@
       <c r="D8">
         <v>3227</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -831,13 +906,16 @@
       <c r="D9">
         <v>-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -845,13 +923,16 @@
       <c r="D10">
         <v>582</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -859,13 +940,16 @@
       <c r="D11">
         <v>424</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -873,19 +957,25 @@
       <c r="D12">
         <v>820</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>2022</v>
       </c>
       <c r="D13">
         <v>5051</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -895,13 +985,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,13 +1004,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -928,13 +1021,16 @@
       <c r="D2">
         <v>1048</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -942,13 +1038,16 @@
       <c r="D3">
         <v>8156</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -956,13 +1055,16 @@
       <c r="D4">
         <v>756</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -970,13 +1072,16 @@
       <c r="D5">
         <v>3334</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -984,13 +1089,16 @@
       <c r="D6">
         <v>13294</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -998,13 +1106,16 @@
       <c r="D7">
         <v>2026</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1012,13 +1123,16 @@
       <c r="D8">
         <v>6551</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1026,13 +1140,16 @@
       <c r="D9">
         <v>646</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1040,19 +1157,25 @@
       <c r="D10">
         <v>1969</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>11192</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1062,13 +1185,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,13 +1204,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1095,13 +1221,16 @@
       <c r="D2">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1109,13 +1238,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1123,13 +1255,16 @@
       <c r="D4">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1137,13 +1272,16 @@
       <c r="D5">
         <v>-124</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1151,13 +1289,16 @@
       <c r="D6">
         <v>-56</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1165,13 +1306,16 @@
       <c r="D7">
         <v>-180</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1179,13 +1323,16 @@
       <c r="D8">
         <v>-123</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1193,13 +1340,16 @@
       <c r="D9">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1207,13 +1357,16 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1221,13 +1374,16 @@
       <c r="D11">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1235,13 +1391,16 @@
       <c r="D12">
         <v>-63</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1249,13 +1408,16 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1263,19 +1425,25 @@
       <c r="D14">
         <v>-63</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>2022</v>
       </c>
       <c r="D15">
         <v>-40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1285,13 +1453,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,13 +1472,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1318,13 +1489,16 @@
       <c r="D2">
         <v>3056</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1332,13 +1506,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1346,13 +1523,16 @@
       <c r="D4">
         <v>782</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1360,13 +1540,16 @@
       <c r="D5">
         <v>1975</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1374,13 +1557,16 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1388,13 +1574,16 @@
       <c r="D7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1402,13 +1591,16 @@
       <c r="D8">
         <v>1326</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1416,13 +1608,16 @@
       <c r="D9">
         <v>7156</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1430,13 +1625,16 @@
       <c r="D10">
         <v>-1445</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1444,13 +1642,16 @@
       <c r="D11">
         <v>781</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1458,13 +1659,16 @@
       <c r="D12">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1472,13 +1676,16 @@
       <c r="D13">
         <v>-121</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1486,13 +1693,16 @@
       <c r="D14">
         <v>989</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1500,13 +1710,16 @@
       <c r="D15">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1514,13 +1727,16 @@
       <c r="D16">
         <v>7420</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1528,13 +1744,16 @@
       <c r="D17">
         <v>-1377</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1542,13 +1761,16 @@
       <c r="D18">
         <v>-124</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1556,13 +1778,16 @@
       <c r="D19">
         <v>5919</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -1570,13 +1795,16 @@
       <c r="D20">
         <v>1897</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -1584,13 +1812,16 @@
       <c r="D21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -1598,13 +1829,16 @@
       <c r="D22">
         <v>636</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -1612,13 +1846,16 @@
       <c r="D23">
         <v>1453</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1626,13 +1863,16 @@
       <c r="D24">
         <v>-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -1640,13 +1880,16 @@
       <c r="D25">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -1654,13 +1897,16 @@
       <c r="D26">
         <v>890</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -1668,13 +1914,16 @@
       <c r="D27">
         <v>4961</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -1682,13 +1931,16 @@
       <c r="D28">
         <v>1188</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -1696,13 +1948,16 @@
       <c r="D29">
         <v>-3778</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -1710,13 +1965,16 @@
       <c r="D30">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -1724,13 +1982,16 @@
       <c r="D31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -1738,13 +1999,16 @@
       <c r="D32">
         <v>-895</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -1752,13 +2016,16 @@
       <c r="D33">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -1766,13 +2033,16 @@
       <c r="D34">
         <v>1620</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -1780,13 +2050,16 @@
       <c r="D35">
         <v>-1631</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -1794,19 +2067,25 @@
       <c r="D36">
         <v>-63</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>2022</v>
       </c>
       <c r="D37">
         <v>-74</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1816,13 +2095,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1835,13 +2114,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1849,13 +2131,16 @@
       <c r="D2">
         <v>4827</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1863,13 +2148,16 @@
       <c r="D3">
         <v>-110</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1877,13 +2165,16 @@
       <c r="D4">
         <v>703</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1891,13 +2182,16 @@
       <c r="D5">
         <v>5420</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1905,13 +2199,16 @@
       <c r="D6">
         <v>3222</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -1919,13 +2216,16 @@
       <c r="D7">
         <v>-105</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1933,19 +2233,25 @@
       <c r="D8">
         <v>887</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>4004</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1955,13 +2261,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1974,13 +2280,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1988,13 +2297,16 @@
       <c r="D2">
         <v>11130</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2002,13 +2314,16 @@
       <c r="D3">
         <v>-468</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2016,13 +2331,16 @@
       <c r="D4">
         <v>10662</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2030,13 +2348,16 @@
       <c r="D5">
         <v>11911</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2044,19 +2365,25 @@
       <c r="D6">
         <v>-456</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>11455</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2066,13 +2393,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2085,223 +2412,271 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>2021</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>2021</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>2021</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>2021</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>2021</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>2021</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>2021</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>2021</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>2021</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>2021</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>2021</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>2021</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
-        <v>2021</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>2021</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>2021</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>2021</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>2021</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>2021</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>2021</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>2021</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>2021</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>2021</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>2021</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>2021</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>2021</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>2021</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>2021</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>2021</v>
@@ -2309,13 +2684,16 @@
       <c r="D17">
         <v>6190</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>2021</v>
@@ -2323,13 +2701,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>2021</v>
@@ -2337,13 +2718,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -2351,13 +2735,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -2365,13 +2752,16 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -2379,13 +2769,16 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -2393,13 +2786,16 @@
       <c r="D23">
         <v>6190</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -2407,13 +2803,16 @@
       <c r="D24">
         <v>6190</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -2421,13 +2820,16 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -2435,13 +2837,16 @@
       <c r="D26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -2449,13 +2854,16 @@
       <c r="D27">
         <v>6190</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>2021</v>
@@ -2463,13 +2871,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>2021</v>
@@ -2477,13 +2888,16 @@
       <c r="D29">
         <v>-119</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>2021</v>
@@ -2491,13 +2905,16 @@
       <c r="D30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>2021</v>
@@ -2505,13 +2922,16 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>2021</v>
@@ -2519,13 +2939,16 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>2021</v>
@@ -2533,13 +2956,16 @@
       <c r="D33">
         <v>-178</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -2547,13 +2973,16 @@
       <c r="D34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>2021</v>
@@ -2561,13 +2990,16 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C36">
         <v>2021</v>
@@ -2575,13 +3007,16 @@
       <c r="D36">
         <v>1630</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37">
         <v>2021</v>
@@ -2589,13 +3024,16 @@
       <c r="D37">
         <v>6190</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>2021</v>
@@ -2603,13 +3041,16 @@
       <c r="D38">
         <v>6190</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>2021</v>
@@ -2617,13 +3058,16 @@
       <c r="D39">
         <v>6190</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C40">
         <v>2021</v>
@@ -2631,13 +3075,16 @@
       <c r="D40">
         <v>771</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>2021</v>
@@ -2645,13 +3092,16 @@
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>2021</v>
@@ -2659,13 +3109,16 @@
       <c r="D42">
         <v>4808</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>2021</v>
@@ -2673,13 +3126,16 @@
       <c r="D43">
         <v>4808</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C44">
         <v>2021</v>
@@ -2687,13 +3143,16 @@
       <c r="D44">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>2021</v>
@@ -2701,13 +3160,16 @@
       <c r="D45">
         <v>-12</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>2021</v>
@@ -2715,13 +3177,16 @@
       <c r="D46">
         <v>4890</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C47">
         <v>2021</v>
@@ -2729,13 +3194,16 @@
       <c r="D47">
         <v>-2407</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -2743,13 +3211,16 @@
       <c r="D48">
         <v>-204</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>2021</v>
@@ -2757,13 +3228,16 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C50">
         <v>2021</v>
@@ -2771,13 +3245,16 @@
       <c r="D50">
         <v>-2526</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C51">
         <v>2021</v>
@@ -2785,13 +3262,16 @@
       <c r="D51">
         <v>-2526</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C52">
         <v>2021</v>
@@ -2799,13 +3279,16 @@
       <c r="D52">
         <v>-235</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C53">
         <v>2021</v>
@@ -2813,13 +3296,16 @@
       <c r="D53">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>2021</v>
@@ -2827,13 +3313,16 @@
       <c r="D54">
         <v>-2692</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>2021</v>
@@ -2841,13 +3330,16 @@
       <c r="D55">
         <v>536</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>2021</v>
@@ -2855,13 +3347,16 @@
       <c r="D56">
         <v>2282</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C57">
         <v>2021</v>
@@ -2869,13 +3364,16 @@
       <c r="D57">
         <v>2282</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C58">
         <v>2021</v>
@@ -2883,13 +3381,16 @@
       <c r="D58">
         <v>2198</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C59">
         <v>2021</v>
@@ -2897,13 +3398,16 @@
       <c r="D59">
         <v>621</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C60">
         <v>2021</v>
@@ -2911,13 +3415,16 @@
       <c r="D60">
         <v>-410</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>2021</v>
@@ -2925,13 +3432,16 @@
       <c r="D61">
         <v>2389</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>2021</v>
@@ -2939,13 +3449,16 @@
       <c r="D62">
         <v>2389</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C63">
         <v>2021</v>
@@ -2953,13 +3466,16 @@
       <c r="D63">
         <v>390</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>2021</v>
@@ -2967,13 +3483,16 @@
       <c r="D64">
         <v>-360</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C65">
         <v>2021</v>
@@ -2981,13 +3500,16 @@
       <c r="D65">
         <v>2419</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C66">
         <v>2021</v>
@@ -2995,13 +3517,16 @@
       <c r="D66">
         <v>-1642</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C67">
         <v>2021</v>
@@ -3009,13 +3534,16 @@
       <c r="D67">
         <v>-313</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C68">
         <v>2021</v>
@@ -3023,13 +3551,16 @@
       <c r="D68">
         <v>364</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C69">
         <v>2021</v>
@@ -3037,13 +3568,16 @@
       <c r="D69">
         <v>-1482</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C70">
         <v>2021</v>
@@ -3051,13 +3585,16 @@
       <c r="D70">
         <v>-1482</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C71">
         <v>2021</v>
@@ -3065,13 +3602,16 @@
       <c r="D71">
         <v>-369</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C72">
         <v>2021</v>
@@ -3079,13 +3619,16 @@
       <c r="D72">
         <v>360</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C73">
         <v>2021</v>
@@ -3093,13 +3636,16 @@
       <c r="D73">
         <v>-1357</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C74">
         <v>2021</v>
@@ -3107,13 +3653,16 @@
       <c r="D74">
         <v>1237</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C75">
         <v>2021</v>
@@ -3121,13 +3670,16 @@
       <c r="D75">
         <v>907</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C76">
         <v>2021</v>
@@ -3135,13 +3687,16 @@
       <c r="D76">
         <v>907</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C77">
         <v>2021</v>
@@ -3149,13 +3704,16 @@
       <c r="D77">
         <v>1062</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C78">
         <v>2021</v>
@@ -3163,13 +3721,16 @@
       <c r="D78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C79">
         <v>2021</v>
@@ -3177,13 +3738,16 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C80">
         <v>2021</v>
@@ -3191,13 +3755,16 @@
       <c r="D80">
         <v>2306</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C81">
         <v>2021</v>
@@ -3205,13 +3772,16 @@
       <c r="D81">
         <v>2306</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C82">
         <v>2021</v>
@@ -3219,13 +3789,16 @@
       <c r="D82">
         <v>707</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C83">
         <v>2021</v>
@@ -3233,13 +3806,16 @@
       <c r="D83">
         <v>-374</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C84">
         <v>2021</v>
@@ -3247,13 +3823,16 @@
       <c r="D84">
         <v>2639</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C85">
         <v>2021</v>
@@ -3261,13 +3840,16 @@
       <c r="D85">
         <v>-1069</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>2021</v>
@@ -3275,13 +3857,16 @@
       <c r="D86">
         <v>-636</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C87">
         <v>2021</v>
@@ -3289,13 +3874,16 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C88">
         <v>2021</v>
@@ -3303,13 +3891,16 @@
       <c r="D88">
         <v>-1382</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C89">
         <v>2021</v>
@@ -3317,13 +3908,16 @@
       <c r="D89">
         <v>-1382</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C90">
         <v>2021</v>
@@ -3331,13 +3925,16 @@
       <c r="D90">
         <v>-782</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C91">
         <v>2021</v>
@@ -3345,13 +3942,16 @@
       <c r="D91">
         <v>374</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C92">
         <v>2021</v>
@@ -3359,13 +3959,16 @@
       <c r="D92">
         <v>-1377</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C93">
         <v>2021</v>
@@ -3373,13 +3976,16 @@
       <c r="D93">
         <v>9593</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C94">
         <v>2021</v>
@@ -3387,13 +3993,16 @@
       <c r="D94">
         <v>924</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C95">
         <v>2021</v>
@@ -3401,19 +4010,25 @@
       <c r="D95">
         <v>924</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C96">
         <v>2021</v>
       </c>
       <c r="D96">
         <v>1262</v>
+      </c>
+      <c r="E96" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3423,13 +4038,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3442,13 +4057,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3456,13 +4074,16 @@
       <c r="D2">
         <v>1538</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3470,13 +4091,16 @@
       <c r="D3">
         <v>641</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3484,13 +4108,16 @@
       <c r="D4">
         <v>838</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3498,13 +4125,16 @@
       <c r="D5">
         <v>3017</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3512,13 +4142,16 @@
       <c r="D6">
         <v>711</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3526,13 +4159,16 @@
       <c r="D7">
         <v>758</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3540,19 +4176,25 @@
       <c r="D8">
         <v>559</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>2028</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3562,13 +4204,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3581,13 +4223,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3595,13 +4240,16 @@
       <c r="D2">
         <v>349</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3609,13 +4257,16 @@
       <c r="D3">
         <v>756</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3623,13 +4274,16 @@
       <c r="D4">
         <v>1105</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3637,13 +4291,16 @@
       <c r="D5">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3651,13 +4308,16 @@
       <c r="D6">
         <v>375</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3665,13 +4325,16 @@
       <c r="D7">
         <v>699</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3679,19 +4342,25 @@
       <c r="D8">
         <v>1074</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3701,13 +4370,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3720,13 +4389,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3734,13 +4406,16 @@
       <c r="D2">
         <v>1262</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3748,13 +4423,16 @@
       <c r="D3">
         <v>454</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3762,13 +4440,16 @@
       <c r="D4">
         <v>-614</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3776,13 +4457,16 @@
       <c r="D5">
         <v>1102</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3790,13 +4474,16 @@
       <c r="D6">
         <v>896</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3804,13 +4491,16 @@
       <c r="D7">
         <v>206</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3818,13 +4508,16 @@
       <c r="D8">
         <v>1102</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -3832,13 +4525,16 @@
       <c r="D9">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -3846,13 +4542,16 @@
       <c r="D10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -3860,13 +4559,16 @@
       <c r="D11">
         <v>-21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -3874,13 +4576,16 @@
       <c r="D12">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -3888,13 +4593,16 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -3902,13 +4610,16 @@
       <c r="D14">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -3916,13 +4627,16 @@
       <c r="D15">
         <v>170</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -3930,13 +4644,16 @@
       <c r="D16">
         <v>1393</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -3944,13 +4661,16 @@
       <c r="D17">
         <v>514</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -3958,13 +4678,16 @@
       <c r="D18">
         <v>-635</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -3972,13 +4695,16 @@
       <c r="D19">
         <v>1272</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -3986,13 +4712,16 @@
       <c r="D20">
         <v>896</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -4000,19 +4729,25 @@
       <c r="D21">
         <v>376</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>2022</v>
       </c>
       <c r="D22">
         <v>1272</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4022,13 +4757,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4041,13 +4776,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4055,13 +4793,16 @@
       <c r="D2">
         <v>50514</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4069,13 +4810,16 @@
       <c r="D3">
         <v>661</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4083,13 +4827,16 @@
       <c r="D4">
         <v>51175</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -4097,13 +4844,16 @@
       <c r="D5">
         <v>42371</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -4111,19 +4861,25 @@
       <c r="D6">
         <v>476</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>42847</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4133,13 +4889,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4152,13 +4908,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4166,13 +4925,16 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4180,13 +4942,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -4194,19 +4959,25 @@
       <c r="D4">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
